--- a/biology/Zoologie/Cephalotes_pallidicephalus/Cephalotes_pallidicephalus.xlsx
+++ b/biology/Zoologie/Cephalotes_pallidicephalus/Cephalotes_pallidicephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes pallidicephalus, est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes pallidicephalus, est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est trouvée dans l'Est de l'Amérique du Sud, de l'état brésilien du Bahia au nord, jusqu'à la région argentine de Santa Fe au sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est trouvée dans l'Est de l'Amérique du Sud, de l'état brésilien du Bahia au nord, jusqu'à la région argentine de Santa Fe au sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste britannique Frederick Smith, en 1876.
 </t>
         </is>
@@ -574,11 +590,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom est constitué de trois mots latins: 
-Cephalotes: « de la tête », « qui touche à la tête », « avec une tête développée »[6]
-Pallidius: « blanc »,  « pâle »[7]
+Cephalotes: « de la tête », « qui touche à la tête », « avec une tête développée »
+Pallidius: « blanc »,  « pâle »
 et 
 cephallus: « tête » (de la même racine lexicale que le terme Cephalotes)
 « Pallidicephalus » renvoie donc à la couleur pâle de la tête, typique de cette espèce.
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
